--- a/python/correct-tube/Data Change Request Demo.xlsx
+++ b/python/correct-tube/Data Change Request Demo.xlsx
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -504,7 +504,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -535,7 +535,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -566,7 +566,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -597,7 +597,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -628,7 +628,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -659,7 +659,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -690,7 +690,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -721,7 +721,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -752,7 +752,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -783,7 +783,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -814,7 +814,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -845,7 +845,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -876,7 +876,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -907,7 +907,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -938,7 +938,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -969,7 +969,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -1000,7 +1000,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -1031,7 +1031,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -1062,7 +1062,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -1093,7 +1093,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -1124,7 +1124,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -1155,7 +1155,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -1186,7 +1186,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -1217,7 +1217,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ITNXXXYY - 7.19.23 - LS</t>
+          <t>ITNXXXYY - 7.21.23 - LS</t>
         </is>
       </c>
       <c r="B26" t="n">
